--- a/crops.xlsx
+++ b/crops.xlsx
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>CROP:</t>
   </si>
@@ -1092,25 +1092,31 @@
     <t>BeforeNFixation.filter</t>
   </si>
   <si>
-    <t>is.before(‘EMR’ , 3.5)</t>
+    <t>is.before('EMR' , 3.5)</t>
   </si>
   <si>
     <t>VegetativeGrowthPhase.filter</t>
   </si>
   <si>
-    <t xml:space="preserve">is.after(‘leafDevelopment’, 0) &amp; is.before(‘grainFilling’, 0) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">is.after(‘EMR’, 0) &amp; is.before(‘R5’, 0) </t>
+    <t xml:space="preserve">is.after('leafDevelopment', 0) &amp; is.before('grainFilling', 0) </t>
+  </si>
+  <si>
+    <t>is.after('grainFilling', 0) &amp; is.before ('maturation', 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is.after('EMR', 0) &amp; is.before('R5', 0) </t>
   </si>
   <si>
     <t>SeedGrowthPhase.filter</t>
   </si>
   <si>
-    <t>is.after(‘grainFilling’, 0) &amp; is.before (‘maturation’, 0)</t>
-  </si>
-  <si>
     <t>is.after(‘R5’, 0) &amp; is.before (‘R7’, 0)</t>
+  </si>
+  <si>
+    <t>BeforeEMR.filter</t>
+  </si>
+  <si>
+    <t>is.before('EMR',0)</t>
   </si>
 </sst>
 </file>
@@ -5988,7 +5994,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -9478,12 +9484,12 @@
       </c>
       <c r="C110" s="127"/>
       <c r="D110" t="s" s="59">
-        <f t="shared" si="16" ref="D110:F110">"is.after('grainFilling', 0) &amp; is.before('maturation')"</f>
+        <f>"is.after('grainFilling', 0) &amp; is.before('maturation')"</f>
         <v>240</v>
       </c>
       <c r="E110" s="85"/>
       <c r="F110" t="s" s="23">
-        <f t="shared" si="16"/>
+        <f>"is.after('grainFilling', 0) &amp; is.before('maturation')"</f>
         <v>240</v>
       </c>
       <c r="G110" s="19"/>
@@ -9877,39 +9883,39 @@
       </c>
       <c r="G122" s="29"/>
       <c r="H122" t="s" s="59">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I122" s="29"/>
       <c r="J122" t="s" s="59">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K122" s="29"/>
       <c r="L122" t="s" s="59">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M122" s="29"/>
       <c r="N122" t="s" s="59">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O122" s="29"/>
       <c r="P122" s="29"/>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="s" s="138">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
       <c r="D123" t="s" s="59">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E123" s="29"/>
       <c r="F123" t="s" s="59">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G123" s="29"/>
       <c r="H123" t="s" s="59">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I123" s="29"/>
       <c r="J123" t="s" s="59">
@@ -9917,14 +9923,46 @@
       </c>
       <c r="K123" s="29"/>
       <c r="L123" t="s" s="59">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M123" s="29"/>
       <c r="N123" t="s" s="59">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O123" s="29"/>
       <c r="P123" s="29"/>
+    </row>
+    <row r="124" ht="15" customHeight="1">
+      <c r="A124" t="s" s="138">
+        <v>270</v>
+      </c>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" t="s" s="59">
+        <v>98</v>
+      </c>
+      <c r="E124" s="29"/>
+      <c r="F124" t="s" s="59">
+        <v>98</v>
+      </c>
+      <c r="G124" s="29"/>
+      <c r="H124" t="s" s="59">
+        <v>98</v>
+      </c>
+      <c r="I124" s="29"/>
+      <c r="J124" t="s" s="59">
+        <v>271</v>
+      </c>
+      <c r="K124" s="29"/>
+      <c r="L124" t="s" s="59">
+        <v>98</v>
+      </c>
+      <c r="M124" s="29"/>
+      <c r="N124" t="s" s="59">
+        <v>98</v>
+      </c>
+      <c r="O124" s="29"/>
+      <c r="P124" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
